--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.94348104518564</v>
+        <v>4.081081666666667</v>
       </c>
       <c r="H2">
-        <v>1.94348104518564</v>
+        <v>12.243245</v>
       </c>
       <c r="I2">
-        <v>0.08927059584929939</v>
+        <v>0.1646100170538642</v>
       </c>
       <c r="J2">
-        <v>0.08927059584929939</v>
+        <v>0.1646100170538642</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N2">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q2">
-        <v>3.11962398281328</v>
+        <v>7.138019970165002</v>
       </c>
       <c r="R2">
-        <v>3.11962398281328</v>
+        <v>64.24217973148501</v>
       </c>
       <c r="S2">
-        <v>0.000308213128064948</v>
+        <v>0.0005999579836243087</v>
       </c>
       <c r="T2">
-        <v>0.000308213128064948</v>
+        <v>0.0005999579836243088</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.94348104518564</v>
+        <v>4.081081666666667</v>
       </c>
       <c r="H3">
-        <v>1.94348104518564</v>
+        <v>12.243245</v>
       </c>
       <c r="I3">
-        <v>0.08927059584929939</v>
+        <v>0.1646100170538642</v>
       </c>
       <c r="J3">
-        <v>0.08927059584929939</v>
+        <v>0.1646100170538642</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N3">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q3">
-        <v>276.8206897295127</v>
+        <v>583.739774390189</v>
       </c>
       <c r="R3">
-        <v>276.8206897295127</v>
+        <v>5253.657969511701</v>
       </c>
       <c r="S3">
-        <v>0.02734937645199408</v>
+        <v>0.04906393362140608</v>
       </c>
       <c r="T3">
-        <v>0.02734937645199408</v>
+        <v>0.04906393362140608</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.94348104518564</v>
+        <v>4.081081666666667</v>
       </c>
       <c r="H4">
-        <v>1.94348104518564</v>
+        <v>12.243245</v>
       </c>
       <c r="I4">
-        <v>0.08927059584929939</v>
+        <v>0.1646100170538642</v>
       </c>
       <c r="J4">
-        <v>0.08927059584929939</v>
+        <v>0.1646100170538642</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N4">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q4">
-        <v>236.3556200219118</v>
+        <v>541.9872834983133</v>
       </c>
       <c r="R4">
-        <v>236.3556200219118</v>
+        <v>4877.88555148482</v>
       </c>
       <c r="S4">
-        <v>0.02335150177842567</v>
+        <v>0.04555459344703235</v>
       </c>
       <c r="T4">
-        <v>0.02335150177842567</v>
+        <v>0.04555459344703236</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.94348104518564</v>
+        <v>4.081081666666667</v>
       </c>
       <c r="H5">
-        <v>1.94348104518564</v>
+        <v>12.243245</v>
       </c>
       <c r="I5">
-        <v>0.08927059584929939</v>
+        <v>0.1646100170538642</v>
       </c>
       <c r="J5">
-        <v>0.08927059584929939</v>
+        <v>0.1646100170538642</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N5">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q5">
-        <v>242.7681619502456</v>
+        <v>513.0212839906934</v>
       </c>
       <c r="R5">
-        <v>242.7681619502456</v>
+        <v>4617.19155591624</v>
       </c>
       <c r="S5">
-        <v>0.02398504916024732</v>
+        <v>0.04311997113848021</v>
       </c>
       <c r="T5">
-        <v>0.02398504916024732</v>
+        <v>0.04311997113848021</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.94348104518564</v>
+        <v>4.081081666666667</v>
       </c>
       <c r="H6">
-        <v>1.94348104518564</v>
+        <v>12.243245</v>
       </c>
       <c r="I6">
-        <v>0.08927059584929939</v>
+        <v>0.1646100170538642</v>
       </c>
       <c r="J6">
-        <v>0.08927059584929939</v>
+        <v>0.1646100170538642</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N6">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O6">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P6">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q6">
-        <v>102.3574942315185</v>
+        <v>218.6908079110028</v>
       </c>
       <c r="R6">
-        <v>102.3574942315185</v>
+        <v>1968.217271199025</v>
       </c>
       <c r="S6">
-        <v>0.01011273270489997</v>
+        <v>0.01838118927936024</v>
       </c>
       <c r="T6">
-        <v>0.01011273270489997</v>
+        <v>0.01838118927936025</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.94348104518564</v>
+        <v>4.081081666666667</v>
       </c>
       <c r="H7">
-        <v>1.94348104518564</v>
+        <v>12.243245</v>
       </c>
       <c r="I7">
-        <v>0.08927059584929939</v>
+        <v>0.1646100170538642</v>
       </c>
       <c r="J7">
-        <v>0.08927059584929939</v>
+        <v>0.1646100170538642</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N7">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q7">
-        <v>42.14372386525058</v>
+        <v>93.87595710969778</v>
       </c>
       <c r="R7">
-        <v>42.14372386525058</v>
+        <v>844.88361398728</v>
       </c>
       <c r="S7">
-        <v>0.004163722625667393</v>
+        <v>0.007890371583961041</v>
       </c>
       <c r="T7">
-        <v>0.004163722625667393</v>
+        <v>0.007890371583961043</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.63350239745707</v>
+        <v>3.762102333333333</v>
       </c>
       <c r="H8">
-        <v>3.63350239745707</v>
+        <v>11.286307</v>
       </c>
       <c r="I8">
-        <v>0.1668989388110381</v>
+        <v>0.1517440178437291</v>
       </c>
       <c r="J8">
-        <v>0.1668989388110381</v>
+        <v>0.1517440178437291</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N8">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q8">
-        <v>5.832401220889654</v>
+        <v>6.580108848219002</v>
       </c>
       <c r="R8">
-        <v>5.832401220889654</v>
+        <v>59.22097963397101</v>
       </c>
       <c r="S8">
-        <v>0.0005762305439128994</v>
+        <v>0.0005530649750360236</v>
       </c>
       <c r="T8">
-        <v>0.0005762305439128994</v>
+        <v>0.0005530649750360236</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.63350239745707</v>
+        <v>3.762102333333333</v>
       </c>
       <c r="H9">
-        <v>3.63350239745707</v>
+        <v>11.286307</v>
       </c>
       <c r="I9">
-        <v>0.1668989388110381</v>
+        <v>0.1517440178437291</v>
       </c>
       <c r="J9">
-        <v>0.1668989388110381</v>
+        <v>0.1517440178437291</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N9">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q9">
-        <v>517.5397219795514</v>
+        <v>538.1143889449579</v>
       </c>
       <c r="R9">
-        <v>517.5397219795514</v>
+        <v>4843.029500504621</v>
       </c>
       <c r="S9">
-        <v>0.05113197535599545</v>
+        <v>0.04522907264200061</v>
       </c>
       <c r="T9">
-        <v>0.05113197535599545</v>
+        <v>0.04522907264200061</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.63350239745707</v>
+        <v>3.762102333333333</v>
       </c>
       <c r="H10">
-        <v>3.63350239745707</v>
+        <v>11.286307</v>
       </c>
       <c r="I10">
-        <v>0.1668989388110381</v>
+        <v>0.1517440178437291</v>
       </c>
       <c r="J10">
-        <v>0.1668989388110381</v>
+        <v>0.1517440178437291</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N10">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q10">
-        <v>441.8868473811314</v>
+        <v>499.6252931030947</v>
       </c>
       <c r="R10">
-        <v>441.8868473811314</v>
+        <v>4496.627637927852</v>
       </c>
       <c r="S10">
-        <v>0.04365761009417414</v>
+        <v>0.04199402420709504</v>
       </c>
       <c r="T10">
-        <v>0.04365761009417414</v>
+        <v>0.04199402420709505</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.63350239745707</v>
+        <v>3.762102333333333</v>
       </c>
       <c r="H11">
-        <v>3.63350239745707</v>
+        <v>11.286307</v>
       </c>
       <c r="I11">
-        <v>0.1668989388110381</v>
+        <v>0.1517440178437291</v>
       </c>
       <c r="J11">
-        <v>0.1668989388110381</v>
+        <v>0.1517440178437291</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N11">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q11">
-        <v>453.8756375615724</v>
+        <v>472.9232902431627</v>
       </c>
       <c r="R11">
-        <v>453.8756375615724</v>
+        <v>4256.309612188465</v>
       </c>
       <c r="S11">
-        <v>0.04484208057638136</v>
+        <v>0.03974969316549878</v>
       </c>
       <c r="T11">
-        <v>0.04484208057638136</v>
+        <v>0.03974969316549878</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.63350239745707</v>
+        <v>3.762102333333333</v>
       </c>
       <c r="H12">
-        <v>3.63350239745707</v>
+        <v>11.286307</v>
       </c>
       <c r="I12">
-        <v>0.1668989388110381</v>
+        <v>0.1517440178437291</v>
       </c>
       <c r="J12">
-        <v>0.1668989388110381</v>
+        <v>0.1517440178437291</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N12">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O12">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P12">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q12">
-        <v>191.3660035991735</v>
+        <v>201.5978277132905</v>
       </c>
       <c r="R12">
-        <v>191.3660035991735</v>
+        <v>1814.380449419615</v>
       </c>
       <c r="S12">
-        <v>0.01890661018748796</v>
+        <v>0.01694450656112562</v>
       </c>
       <c r="T12">
-        <v>0.01890661018748796</v>
+        <v>0.01694450656112562</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.63350239745707</v>
+        <v>3.762102333333333</v>
       </c>
       <c r="H13">
-        <v>3.63350239745707</v>
+        <v>11.286307</v>
       </c>
       <c r="I13">
-        <v>0.1668989388110381</v>
+        <v>0.1517440178437291</v>
       </c>
       <c r="J13">
-        <v>0.1668989388110381</v>
+        <v>0.1517440178437291</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N13">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q13">
-        <v>78.79126070279214</v>
+        <v>86.53856652046755</v>
       </c>
       <c r="R13">
-        <v>78.79126070279214</v>
+        <v>778.847098684208</v>
       </c>
       <c r="S13">
-        <v>0.007784432053086278</v>
+        <v>0.00727365629297303</v>
       </c>
       <c r="T13">
-        <v>0.007784432053086278</v>
+        <v>0.007273656292973032</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.64736032483152</v>
+        <v>2.946064666666667</v>
       </c>
       <c r="H14">
-        <v>2.64736032483152</v>
+        <v>8.838194</v>
       </c>
       <c r="I14">
-        <v>0.1216021294423946</v>
+        <v>0.1188292209349205</v>
       </c>
       <c r="J14">
-        <v>0.1216021294423946</v>
+        <v>0.1188292209349205</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N14">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q14">
-        <v>4.249472245150656</v>
+        <v>5.152817351298001</v>
       </c>
       <c r="R14">
-        <v>4.249472245150656</v>
+        <v>46.37535616168201</v>
       </c>
       <c r="S14">
-        <v>0.0004198400642252832</v>
+        <v>0.0004330996440176165</v>
       </c>
       <c r="T14">
-        <v>0.0004198400642252832</v>
+        <v>0.0004330996440176166</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.64736032483152</v>
+        <v>2.946064666666667</v>
       </c>
       <c r="H15">
-        <v>2.64736032483152</v>
+        <v>8.838194</v>
       </c>
       <c r="I15">
-        <v>0.1216021294423946</v>
+        <v>0.1188292209349205</v>
       </c>
       <c r="J15">
-        <v>0.1216021294423946</v>
+        <v>0.1188292209349205</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N15">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q15">
-        <v>377.0780851698027</v>
+        <v>421.3919897524489</v>
       </c>
       <c r="R15">
-        <v>377.0780851698027</v>
+        <v>3792.52790777204</v>
       </c>
       <c r="S15">
-        <v>0.03725462324793326</v>
+        <v>0.0354184338996001</v>
       </c>
       <c r="T15">
-        <v>0.03725462324793326</v>
+        <v>0.03541843389960011</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.64736032483152</v>
+        <v>2.946064666666667</v>
       </c>
       <c r="H16">
-        <v>2.64736032483152</v>
+        <v>8.838194</v>
       </c>
       <c r="I16">
-        <v>0.1216021294423946</v>
+        <v>0.1188292209349205</v>
       </c>
       <c r="J16">
-        <v>0.1216021294423946</v>
+        <v>0.1188292209349205</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N16">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q16">
-        <v>321.957598993303</v>
+        <v>391.2515641965093</v>
       </c>
       <c r="R16">
-        <v>321.957598993303</v>
+        <v>3521.264077768584</v>
       </c>
       <c r="S16">
-        <v>0.03180882030549045</v>
+        <v>0.03288509986331243</v>
       </c>
       <c r="T16">
-        <v>0.03180882030549045</v>
+        <v>0.03288509986331244</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.64736032483152</v>
+        <v>2.946064666666667</v>
       </c>
       <c r="H17">
-        <v>2.64736032483152</v>
+        <v>8.838194</v>
       </c>
       <c r="I17">
-        <v>0.1216021294423946</v>
+        <v>0.1188292209349205</v>
       </c>
       <c r="J17">
-        <v>0.1216021294423946</v>
+        <v>0.1188292209349205</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N17">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q17">
-        <v>330.692600100951</v>
+        <v>370.3414931285653</v>
       </c>
       <c r="R17">
-        <v>330.692600100951</v>
+        <v>3333.073438157088</v>
       </c>
       <c r="S17">
-        <v>0.03267182239480351</v>
+        <v>0.03112758669750454</v>
       </c>
       <c r="T17">
-        <v>0.03267182239480351</v>
+        <v>0.03112758669750454</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.64736032483152</v>
+        <v>2.946064666666667</v>
       </c>
       <c r="H18">
-        <v>2.64736032483152</v>
+        <v>8.838194</v>
       </c>
       <c r="I18">
-        <v>0.1216021294423946</v>
+        <v>0.1188292209349205</v>
       </c>
       <c r="J18">
-        <v>0.1216021294423946</v>
+        <v>0.1188292209349205</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N18">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O18">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P18">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q18">
-        <v>139.4287687286447</v>
+        <v>157.8692402491478</v>
       </c>
       <c r="R18">
-        <v>139.4287687286447</v>
+        <v>1420.82316224233</v>
       </c>
       <c r="S18">
-        <v>0.01377530663594462</v>
+        <v>0.01326907341980872</v>
       </c>
       <c r="T18">
-        <v>0.01377530663594462</v>
+        <v>0.01326907341980872</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.64736032483152</v>
+        <v>2.946064666666667</v>
       </c>
       <c r="H19">
-        <v>2.64736032483152</v>
+        <v>8.838194</v>
       </c>
       <c r="I19">
-        <v>0.1216021294423946</v>
+        <v>0.1188292209349205</v>
       </c>
       <c r="J19">
-        <v>0.1216021294423946</v>
+        <v>0.1188292209349205</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N19">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q19">
-        <v>57.40710606769133</v>
+        <v>67.76748491688177</v>
       </c>
       <c r="R19">
-        <v>57.40710606769133</v>
+        <v>609.907364251936</v>
       </c>
       <c r="S19">
-        <v>0.005671716793997485</v>
+        <v>0.005695927410677068</v>
       </c>
       <c r="T19">
-        <v>0.005671716793997485</v>
+        <v>0.00569592741067707</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.66440951391284</v>
+        <v>2.855569666666666</v>
       </c>
       <c r="H20">
-        <v>2.66440951391284</v>
+        <v>8.566708999999999</v>
       </c>
       <c r="I20">
-        <v>0.1223852558185469</v>
+        <v>0.115179114245079</v>
       </c>
       <c r="J20">
-        <v>0.1223852558185469</v>
+        <v>0.115179114245079</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N20">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q20">
-        <v>4.276839149128114</v>
+        <v>4.994536981053001</v>
       </c>
       <c r="R20">
-        <v>4.276839149128114</v>
+        <v>44.950832829477</v>
       </c>
       <c r="S20">
-        <v>0.0004225438641469451</v>
+        <v>0.0004197960146951414</v>
       </c>
       <c r="T20">
-        <v>0.0004225438641469451</v>
+        <v>0.0004197960146951415</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.66440951391284</v>
+        <v>2.855569666666666</v>
       </c>
       <c r="H21">
-        <v>2.66440951391284</v>
+        <v>8.566708999999999</v>
       </c>
       <c r="I21">
-        <v>0.1223852558185469</v>
+        <v>0.115179114245079</v>
       </c>
       <c r="J21">
-        <v>0.1223852558185469</v>
+        <v>0.115179114245079</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N21">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q21">
-        <v>379.506494900122</v>
+        <v>408.4479873535489</v>
       </c>
       <c r="R21">
-        <v>379.506494900122</v>
+        <v>3676.03188618194</v>
       </c>
       <c r="S21">
-        <v>0.03749454567554907</v>
+        <v>0.03433047706959242</v>
       </c>
       <c r="T21">
-        <v>0.03749454567554907</v>
+        <v>0.03433047706959242</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.66440951391284</v>
+        <v>2.855569666666666</v>
       </c>
       <c r="H22">
-        <v>2.66440951391284</v>
+        <v>8.566708999999999</v>
       </c>
       <c r="I22">
-        <v>0.1223852558185469</v>
+        <v>0.115179114245079</v>
       </c>
       <c r="J22">
-        <v>0.1223852558185469</v>
+        <v>0.115179114245079</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N22">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q22">
-        <v>324.0310288660401</v>
+        <v>379.2333927345693</v>
       </c>
       <c r="R22">
-        <v>324.0310288660401</v>
+        <v>3413.100534611124</v>
       </c>
       <c r="S22">
-        <v>0.03201367137421551</v>
+        <v>0.03187496008403271</v>
       </c>
       <c r="T22">
-        <v>0.03201367137421551</v>
+        <v>0.03187496008403271</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.66440951391284</v>
+        <v>2.855569666666666</v>
       </c>
       <c r="H23">
-        <v>2.66440951391284</v>
+        <v>8.566708999999999</v>
       </c>
       <c r="I23">
-        <v>0.1223852558185469</v>
+        <v>0.115179114245079</v>
       </c>
       <c r="J23">
-        <v>0.1223852558185469</v>
+        <v>0.115179114245079</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N23">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q23">
-        <v>332.8222840030746</v>
+        <v>358.9656215124853</v>
       </c>
       <c r="R23">
-        <v>332.8222840030746</v>
+        <v>3230.690593612368</v>
       </c>
       <c r="S23">
-        <v>0.03288223125846122</v>
+        <v>0.0301714328866047</v>
       </c>
       <c r="T23">
-        <v>0.03288223125846122</v>
+        <v>0.03017143288660471</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.66440951391284</v>
+        <v>2.855569666666666</v>
       </c>
       <c r="H24">
-        <v>2.66440951391284</v>
+        <v>8.566708999999999</v>
       </c>
       <c r="I24">
-        <v>0.1223852558185469</v>
+        <v>0.115179114245079</v>
       </c>
       <c r="J24">
-        <v>0.1223852558185469</v>
+        <v>0.115179114245079</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N24">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O24">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P24">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q24">
-        <v>140.3266999317126</v>
+        <v>153.0199315907228</v>
       </c>
       <c r="R24">
-        <v>140.3266999317126</v>
+        <v>1377.179384316505</v>
       </c>
       <c r="S24">
-        <v>0.01386402059198849</v>
+        <v>0.01286148399629338</v>
       </c>
       <c r="T24">
-        <v>0.01386402059198849</v>
+        <v>0.01286148399629338</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.66440951391284</v>
+        <v>2.855569666666666</v>
       </c>
       <c r="H25">
-        <v>2.66440951391284</v>
+        <v>8.566708999999999</v>
       </c>
       <c r="I25">
-        <v>0.1223852558185469</v>
+        <v>0.115179114245079</v>
       </c>
       <c r="J25">
-        <v>0.1223852558185469</v>
+        <v>0.115179114245079</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N25">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q25">
-        <v>57.77681192026422</v>
+        <v>65.68585425312178</v>
       </c>
       <c r="R25">
-        <v>57.77681192026422</v>
+        <v>591.172688278096</v>
       </c>
       <c r="S25">
-        <v>0.005708243054185627</v>
+        <v>0.005520964193860638</v>
       </c>
       <c r="T25">
-        <v>0.005708243054185627</v>
+        <v>0.005520964193860641</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.11376196773769</v>
+        <v>7.220197666666667</v>
       </c>
       <c r="H26">
-        <v>7.11376196773769</v>
+        <v>21.660593</v>
       </c>
       <c r="I26">
-        <v>0.3267589211446972</v>
+        <v>0.2912259440309176</v>
       </c>
       <c r="J26">
-        <v>0.3267589211446972</v>
+        <v>0.2912259440309176</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N26">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q26">
-        <v>11.4188211392922</v>
+        <v>12.628493949081</v>
       </c>
       <c r="R26">
-        <v>11.4188211392922</v>
+        <v>113.656445541729</v>
       </c>
       <c r="S26">
-        <v>0.001128158586273458</v>
+        <v>0.0010614380174853</v>
       </c>
       <c r="T26">
-        <v>0.001128158586273458</v>
+        <v>0.0010614380174853</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.11376196773769</v>
+        <v>7.220197666666667</v>
       </c>
       <c r="H27">
-        <v>7.11376196773769</v>
+        <v>21.660593</v>
       </c>
       <c r="I27">
-        <v>0.3267589211446972</v>
+        <v>0.2912259440309176</v>
       </c>
       <c r="J27">
-        <v>0.3267589211446972</v>
+        <v>0.2912259440309176</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N27">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q27">
-        <v>1013.252225617988</v>
+        <v>1032.744968427709</v>
       </c>
       <c r="R27">
-        <v>1013.252225617988</v>
+        <v>9294.704715849381</v>
       </c>
       <c r="S27">
-        <v>0.1001074615713334</v>
+        <v>0.0868032859876849</v>
       </c>
       <c r="T27">
-        <v>0.1001074615713334</v>
+        <v>0.0868032859876849</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.11376196773769</v>
+        <v>7.220197666666667</v>
       </c>
       <c r="H28">
-        <v>7.11376196773769</v>
+        <v>21.660593</v>
       </c>
       <c r="I28">
-        <v>0.3267589211446972</v>
+        <v>0.2912259440309176</v>
       </c>
       <c r="J28">
-        <v>0.3267589211446972</v>
+        <v>0.2912259440309176</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N28">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q28">
-        <v>865.1371335666065</v>
+        <v>958.8769937245053</v>
       </c>
       <c r="R28">
-        <v>865.1371335666065</v>
+        <v>8629.892943520548</v>
       </c>
       <c r="S28">
-        <v>0.08547396212194917</v>
+        <v>0.08059460608169114</v>
       </c>
       <c r="T28">
-        <v>0.08547396212194917</v>
+        <v>0.08059460608169115</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.11376196773769</v>
+        <v>7.220197666666667</v>
       </c>
       <c r="H29">
-        <v>7.11376196773769</v>
+        <v>21.660593</v>
       </c>
       <c r="I29">
-        <v>0.3267589211446972</v>
+        <v>0.2912259440309176</v>
       </c>
       <c r="J29">
-        <v>0.3267589211446972</v>
+        <v>0.2912259440309176</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N29">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q29">
-        <v>888.6090871518019</v>
+        <v>907.6307166000373</v>
       </c>
       <c r="R29">
-        <v>888.6090871518019</v>
+        <v>8168.676449400336</v>
       </c>
       <c r="S29">
-        <v>0.08779294808825283</v>
+        <v>0.07628730332541465</v>
       </c>
       <c r="T29">
-        <v>0.08779294808825283</v>
+        <v>0.07628730332541465</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.11376196773769</v>
+        <v>7.220197666666667</v>
       </c>
       <c r="H30">
-        <v>7.11376196773769</v>
+        <v>21.660593</v>
       </c>
       <c r="I30">
-        <v>0.3267589211446972</v>
+        <v>0.2912259440309176</v>
       </c>
       <c r="J30">
-        <v>0.3267589211446972</v>
+        <v>0.2912259440309176</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N30">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O30">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P30">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q30">
-        <v>374.661153182255</v>
+        <v>386.9049898945427</v>
       </c>
       <c r="R30">
-        <v>374.661153182255</v>
+        <v>3482.144909050885</v>
       </c>
       <c r="S30">
-        <v>0.03701583480025293</v>
+        <v>0.03251976578400461</v>
       </c>
       <c r="T30">
-        <v>0.03701583480025293</v>
+        <v>0.03251976578400461</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.11376196773769</v>
+        <v>7.220197666666667</v>
       </c>
       <c r="H31">
-        <v>7.11376196773769</v>
+        <v>21.660593</v>
       </c>
       <c r="I31">
-        <v>0.3267589211446972</v>
+        <v>0.2912259440309176</v>
       </c>
       <c r="J31">
-        <v>0.3267589211446972</v>
+        <v>0.2912259440309176</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N31">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O31">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P31">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q31">
-        <v>154.2595029440187</v>
+        <v>166.0841467632658</v>
       </c>
       <c r="R31">
-        <v>154.2595029440187</v>
+        <v>1494.757320869392</v>
       </c>
       <c r="S31">
-        <v>0.0152405559766354</v>
+        <v>0.01395954483463701</v>
       </c>
       <c r="T31">
-        <v>0.0152405559766354</v>
+        <v>0.01395954483463701</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3.76815880873068</v>
+        <v>3.92741</v>
       </c>
       <c r="H32">
-        <v>3.76815880873068</v>
+        <v>11.78223</v>
       </c>
       <c r="I32">
-        <v>0.1730841589340238</v>
+        <v>0.1584116858914896</v>
       </c>
       <c r="J32">
-        <v>0.1730841589340238</v>
+        <v>0.1584116858914896</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N32">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O32">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P32">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q32">
-        <v>6.048548103870237</v>
+        <v>6.869240387910001</v>
       </c>
       <c r="R32">
-        <v>6.048548103870237</v>
+        <v>61.82316349119</v>
       </c>
       <c r="S32">
-        <v>0.0005975854595347675</v>
+        <v>0.0005773667808981882</v>
       </c>
       <c r="T32">
-        <v>0.0005975854595347675</v>
+        <v>0.0005773667808981882</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3.76815880873068</v>
+        <v>3.92741</v>
       </c>
       <c r="H33">
-        <v>3.76815880873068</v>
+        <v>11.78223</v>
       </c>
       <c r="I33">
-        <v>0.1730841589340238</v>
+        <v>0.1584116858914896</v>
       </c>
       <c r="J33">
-        <v>0.1730841589340238</v>
+        <v>0.1584116858914896</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N33">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P33">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q33">
-        <v>536.7195749231138</v>
+        <v>561.7592625168667</v>
       </c>
       <c r="R33">
-        <v>536.7195749231138</v>
+        <v>5055.8333626518</v>
       </c>
       <c r="S33">
-        <v>0.0530269096506825</v>
+        <v>0.04721644879540835</v>
       </c>
       <c r="T33">
-        <v>0.0530269096506825</v>
+        <v>0.04721644879540835</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3.76815880873068</v>
+        <v>3.92741</v>
       </c>
       <c r="H34">
-        <v>3.76815880873068</v>
+        <v>11.78223</v>
       </c>
       <c r="I34">
-        <v>0.1730841589340238</v>
+        <v>0.1584116858914896</v>
       </c>
       <c r="J34">
-        <v>0.1730841589340238</v>
+        <v>0.1584116858914896</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N34">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O34">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P34">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q34">
-        <v>458.2630295185083</v>
+        <v>521.57894669692</v>
       </c>
       <c r="R34">
-        <v>458.2630295185083</v>
+        <v>4694.21052027228</v>
       </c>
       <c r="S34">
-        <v>0.04527554685518421</v>
+        <v>0.0438392515668377</v>
       </c>
       <c r="T34">
-        <v>0.04527554685518421</v>
+        <v>0.04383925156683771</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3.76815880873068</v>
+        <v>3.92741</v>
       </c>
       <c r="H35">
-        <v>3.76815880873068</v>
+        <v>11.78223</v>
       </c>
       <c r="I35">
-        <v>0.1730841589340238</v>
+        <v>0.1584116858914896</v>
       </c>
       <c r="J35">
-        <v>0.1730841589340238</v>
+        <v>0.1584116858914896</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N35">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O35">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P35">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q35">
-        <v>470.696120344613</v>
+        <v>493.7036515134399</v>
       </c>
       <c r="R35">
-        <v>470.696120344613</v>
+        <v>4443.33286362096</v>
       </c>
       <c r="S35">
-        <v>0.04650391342632897</v>
+        <v>0.04149630408824912</v>
       </c>
       <c r="T35">
-        <v>0.04650391342632897</v>
+        <v>0.04149630408824912</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3.76815880873068</v>
+        <v>3.92741</v>
       </c>
       <c r="H36">
-        <v>3.76815880873068</v>
+        <v>11.78223</v>
       </c>
       <c r="I36">
-        <v>0.1730841589340238</v>
+        <v>0.1584116858914896</v>
       </c>
       <c r="J36">
-        <v>0.1730841589340238</v>
+        <v>0.1584116858914896</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N36">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O36">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P36">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q36">
-        <v>198.457965146377</v>
+        <v>210.4560839624833</v>
       </c>
       <c r="R36">
-        <v>198.457965146377</v>
+        <v>1894.10475566235</v>
       </c>
       <c r="S36">
-        <v>0.01960728298158822</v>
+        <v>0.01768905218861148</v>
       </c>
       <c r="T36">
-        <v>0.01960728298158822</v>
+        <v>0.01768905218861149</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3.76815880873068</v>
+        <v>3.92741</v>
       </c>
       <c r="H37">
-        <v>3.76815880873068</v>
+        <v>11.78223</v>
       </c>
       <c r="I37">
-        <v>0.1730841589340238</v>
+        <v>0.1584116858914896</v>
       </c>
       <c r="J37">
-        <v>0.1730841589340238</v>
+        <v>0.1584116858914896</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N37">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O37">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P37">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q37">
-        <v>81.7112390722537</v>
+        <v>90.34109160901332</v>
       </c>
       <c r="R37">
-        <v>81.7112390722537</v>
+        <v>813.0698244811199</v>
       </c>
       <c r="S37">
-        <v>0.008072920560705117</v>
+        <v>0.007593262471484748</v>
       </c>
       <c r="T37">
-        <v>0.008072920560705117</v>
+        <v>0.00759326247148475</v>
       </c>
     </row>
   </sheetData>
